--- a/exposan/pm2_ecorecover/data/initial_conditition_calc._vali.xlsx
+++ b/exposan/pm2_ecorecover/data/initial_conditition_calc._vali.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_half\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2_ecorecover\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC6CB68-8F8D-4D00-AB16-A4BDDD9A30E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65255FF2-FE10-429F-9B8D-84458AA7EBA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3" xr2:uid="{DDF619FE-EB2A-46FB-BA68-BAD48C3E9660}"/>
   </bookViews>
@@ -1028,22 +1028,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>501293</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130023</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>231029</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>147621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AF15ED-A29C-41B0-B42D-47D79133AD32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA38B4F9-F6C0-4291-8181-D85A0DE013B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,8 +1059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14039850" y="0"/>
-          <a:ext cx="11997968" cy="5578323"/>
+          <a:off x="14446250" y="5641975"/>
+          <a:ext cx="3691779" cy="5856271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,6 +1069,228 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381289</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>446831</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81833DD-13FB-4546-9027-C4BE1B7AAB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18288289" y="5603875"/>
+          <a:ext cx="4161292" cy="5328133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>441902</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>305091</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4624232C-B205-4701-B0D7-5BCD09C38929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22444652" y="5603875"/>
+          <a:ext cx="4641564" cy="5318609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>396463</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36245</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1105431" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051A9D36-2C08-4453-9588-D0C4475AFBB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16938213" y="9116745"/>
+          <a:ext cx="1105431" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X 1.65</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>579541</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36244</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1105431" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE3544E-6516-436E-A574-D2FDA7C7C965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21217041" y="9116744"/>
+          <a:ext cx="1105431" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X 0.76</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3204,7 +3426,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3322,19 +3544,19 @@
       </c>
       <c r="B11" s="4">
         <f>B12</f>
-        <v>2.6336400650474747</v>
+        <v>2.5989869062968496</v>
       </c>
       <c r="C11" s="2">
         <f>C12</f>
-        <v>526.72801300949493</v>
+        <v>519.7973812593699</v>
       </c>
       <c r="D11" s="4">
         <f>D12</f>
-        <v>23.933094049703787</v>
+        <v>23.618184917470842</v>
       </c>
       <c r="E11" s="4">
         <f>E12</f>
-        <v>97.626437316439393</v>
+        <v>96.341878930696765</v>
       </c>
       <c r="F11" s="4">
         <v>30</v>
@@ -3359,11 +3581,11 @@
       </c>
       <c r="M11" s="4">
         <f>M12</f>
-        <v>3.3622424852519499</v>
+        <v>3.3180024525512661</v>
       </c>
       <c r="N11" s="4">
         <f>N12</f>
-        <v>0.19918770124803442</v>
+        <v>0.19656681044213925</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3372,19 +3594,19 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ref="B12:B14" si="0">C12*0.005</f>
-        <v>2.6336400650474747</v>
+        <v>2.5989869062968496</v>
       </c>
       <c r="C12" s="2">
         <f>C13/1.65</f>
-        <v>526.72801300949493</v>
+        <v>519.7973812593699</v>
       </c>
       <c r="D12" s="4">
         <f>D13/1.65</f>
-        <v>23.933094049703787</v>
+        <v>23.618184917470842</v>
       </c>
       <c r="E12" s="4">
         <f>E13/1.65</f>
-        <v>97.626437316439393</v>
+        <v>96.341878930696765</v>
       </c>
       <c r="F12" s="4">
         <v>30</v>
@@ -3409,11 +3631,11 @@
       </c>
       <c r="M12" s="4">
         <f>M13/1.65</f>
-        <v>3.3622424852519499</v>
+        <v>3.3180024525512661</v>
       </c>
       <c r="N12" s="4">
         <f>N13/1.65</f>
-        <v>0.19918770124803442</v>
+        <v>0.19656681044213925</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3422,19 +3644,19 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>4.3455061073283323</v>
+        <v>4.2883283953898017</v>
       </c>
       <c r="C13" s="2">
-        <f>C14/0.75</f>
-        <v>869.10122146566653</v>
+        <f>C14/0.76</f>
+        <v>857.66567907796036</v>
       </c>
       <c r="D13" s="4">
-        <f>D14/0.75</f>
-        <v>39.489605182011246</v>
+        <f>D14/0.76</f>
+        <v>38.970005113826886</v>
       </c>
       <c r="E13" s="4">
-        <f>E14/0.75</f>
-        <v>161.083621572125</v>
+        <f>E14/0.76</f>
+        <v>158.96410023564965</v>
       </c>
       <c r="F13" s="4">
         <v>30</v>
@@ -3458,12 +3680,12 @@
         <v>0.47520980408053809</v>
       </c>
       <c r="M13" s="4">
-        <f>M14/0.75</f>
-        <v>5.5477001006657174</v>
+        <f>M14/0.76</f>
+        <v>5.4747040467095891</v>
       </c>
       <c r="N13" s="4">
-        <f>N14/0.75</f>
-        <v>0.32865970705925679</v>
+        <f>N14/0.76</f>
+        <v>0.32433523722952973</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
